--- a/Team-Data/2013-14/3-24-2013-14.xlsx
+++ b/Team-Data/2013-14/3-24-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" t="n">
-        <v>0.449</v>
+        <v>0.456</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.4</v>
+        <v>37.6</v>
       </c>
       <c r="J2" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L2" t="n">
         <v>9.6</v>
@@ -696,28 +763,28 @@
         <v>25.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="P2" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S2" t="n">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="V2" t="n">
         <v>15.3</v>
@@ -726,25 +793,25 @@
         <v>8.5</v>
       </c>
       <c r="X2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z2" t="n">
         <v>19.2</v>
       </c>
       <c r="AA2" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -756,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -777,19 +844,19 @@
         <v>5</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>8</v>
       </c>
       <c r="AR2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>8</v>
@@ -813,7 +880,7 @@
         <v>4</v>
       </c>
       <c r="BA2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
@@ -950,7 +1017,7 @@
         <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
@@ -971,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="AS3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
         <v>13</v>
@@ -980,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="AV3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>25</v>
@@ -998,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="BB3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" t="n">
         <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.536</v>
+        <v>0.544</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I4" t="n">
         <v>35.5</v>
       </c>
       <c r="J4" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L4" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.368</v>
+        <v>0.371</v>
       </c>
       <c r="O4" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.76</v>
+        <v>0.757</v>
       </c>
       <c r="R4" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S4" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="T4" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U4" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V4" t="n">
         <v>14.3</v>
@@ -1105,22 +1172,22 @@
         <v>98.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG4" t="n">
         <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1129,28 +1196,28 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL4" t="n">
         <v>12</v>
       </c>
       <c r="AM4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
         <v>15</v>
       </c>
       <c r="AR4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1159,10 +1226,10 @@
         <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
         <v>7</v>
@@ -1177,10 +1244,10 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC4" t="n">
         <v>17</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -1212,70 +1279,70 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E5" t="n">
         <v>34</v>
       </c>
       <c r="F5" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" t="n">
-        <v>0.479</v>
+        <v>0.486</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J5" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L5" t="n">
         <v>6.1</v>
       </c>
       <c r="M5" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.351</v>
+        <v>0.354</v>
       </c>
       <c r="O5" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P5" t="n">
         <v>24.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.738</v>
+        <v>0.737</v>
       </c>
       <c r="R5" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T5" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="W5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="X5" t="n">
         <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z5" t="n">
         <v>18.3</v>
@@ -1284,13 +1351,13 @@
         <v>20.9</v>
       </c>
       <c r="AB5" t="n">
-        <v>96</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.2</v>
+        <v>-1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
         <v>14</v>
@@ -1335,13 +1402,13 @@
         <v>25</v>
       </c>
       <c r="AS5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT5" t="n">
         <v>21</v>
       </c>
       <c r="AU5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,13 +1420,13 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
       </c>
       <c r="BA5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB5" t="n">
         <v>25</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -1394,22 +1461,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" t="n">
         <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>34.5</v>
+        <v>34.4</v>
       </c>
       <c r="J6" t="n">
         <v>80.3</v>
@@ -1424,22 +1491,22 @@
         <v>17.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R6" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S6" t="n">
-        <v>33</v>
+        <v>32.9</v>
       </c>
       <c r="T6" t="n">
         <v>44.7</v>
@@ -1448,13 +1515,13 @@
         <v>22.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
       </c>
       <c r="X6" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y6" t="n">
         <v>6.2</v>
@@ -1466,13 +1533,13 @@
         <v>21.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.09999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1508,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ6" t="n">
         <v>9</v>
@@ -1517,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT6" t="n">
         <v>9</v>
@@ -1526,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="AV6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW6" t="n">
         <v>21</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>22</v>
       </c>
       <c r="AH7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI7" t="n">
         <v>22</v>
@@ -1687,7 +1754,7 @@
         <v>16</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
         <v>19</v>
@@ -1705,7 +1772,7 @@
         <v>11</v>
       </c>
       <c r="AU7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
         <v>11</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -1848,13 +1915,13 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1863,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AN8" t="n">
         <v>3</v>
@@ -1905,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="BA8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB8" t="n">
         <v>8</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -1940,52 +2007,52 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
         <v>32</v>
       </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" t="n">
-        <v>0.451</v>
+        <v>0.457</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J9" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L9" t="n">
         <v>8.5</v>
       </c>
       <c r="M9" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N9" t="n">
         <v>0.361</v>
       </c>
       <c r="O9" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.4</v>
+        <v>26.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.718</v>
+        <v>0.719</v>
       </c>
       <c r="R9" t="n">
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
         <v>45.3</v>
@@ -2000,7 +2067,7 @@
         <v>7.4</v>
       </c>
       <c r="X9" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y9" t="n">
         <v>5.6</v>
@@ -2009,16 +2076,16 @@
         <v>22.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB9" t="n">
-        <v>103.8</v>
+        <v>103.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
@@ -2039,16 +2106,16 @@
         <v>5</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL9" t="n">
         <v>9</v>
       </c>
       <c r="AM9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO9" t="n">
         <v>8</v>
@@ -2066,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="AT9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -2122,43 +2189,43 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" t="n">
         <v>44</v>
       </c>
       <c r="G10" t="n">
-        <v>0.371</v>
+        <v>0.362</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.90000000000001</v>
+        <v>87</v>
       </c>
       <c r="K10" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.318</v>
+        <v>0.316</v>
       </c>
       <c r="O10" t="n">
         <v>16.9</v>
       </c>
       <c r="P10" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q10" t="n">
         <v>0.666</v>
@@ -2167,22 +2234,22 @@
         <v>14.3</v>
       </c>
       <c r="S10" t="n">
-        <v>30.9</v>
+        <v>30.8</v>
       </c>
       <c r="T10" t="n">
-        <v>45.2</v>
+        <v>45.1</v>
       </c>
       <c r="U10" t="n">
         <v>21</v>
       </c>
       <c r="V10" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
         <v>8.6</v>
       </c>
       <c r="X10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y10" t="n">
         <v>4.9</v>
@@ -2194,13 +2261,13 @@
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.8</v>
+        <v>-3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL10" t="n">
         <v>28</v>
@@ -2233,7 +2300,7 @@
         <v>29</v>
       </c>
       <c r="AO10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>6</v>
@@ -2251,13 +2318,13 @@
         <v>6</v>
       </c>
       <c r="AU10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>11</v>
@@ -2272,7 +2339,7 @@
         <v>14</v>
       </c>
       <c r="BB10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -2394,10 +2461,10 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -2412,16 +2479,16 @@
         <v>7</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP11" t="n">
         <v>20</v>
       </c>
       <c r="AQ11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR11" t="n">
         <v>18</v>
@@ -2430,10 +2497,10 @@
         <v>3</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>23</v>
@@ -2442,7 +2509,7 @@
         <v>13</v>
       </c>
       <c r="AX11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
         <v>10</v>
@@ -2454,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.681</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2516,16 +2583,16 @@
         <v>26.1</v>
       </c>
       <c r="N12" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O12" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P12" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.701</v>
+        <v>0.703</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
@@ -2540,7 +2607,7 @@
         <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2552,19 +2619,19 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA12" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AC12" t="n">
         <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2630,7 +2697,7 @@
         <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>1</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v>51</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.718</v>
+        <v>0.729</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M13" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N13" t="n">
         <v>0.35</v>
@@ -2707,10 +2774,10 @@
         <v>23.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.785</v>
+        <v>0.783</v>
       </c>
       <c r="R13" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S13" t="n">
         <v>35</v>
@@ -2719,10 +2786,10 @@
         <v>45.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2737,19 +2804,19 @@
         <v>20.3</v>
       </c>
       <c r="AA13" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.8</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF13" t="n">
         <v>3</v>
@@ -2770,7 +2837,7 @@
         <v>14</v>
       </c>
       <c r="AL13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM13" t="n">
         <v>24</v>
@@ -2800,13 +2867,13 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY13" t="n">
         <v>13</v>
@@ -2818,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.704</v>
+        <v>0.7</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
         <v>82.3</v>
@@ -2877,10 +2944,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="M14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O14" t="n">
         <v>21</v>
@@ -2889,7 +2956,7 @@
         <v>28.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.73</v>
+        <v>0.729</v>
       </c>
       <c r="R14" t="n">
         <v>10.4</v>
@@ -2901,7 +2968,7 @@
         <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V14" t="n">
         <v>13.9</v>
@@ -2922,13 +2989,13 @@
         <v>23.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2943,7 +3010,7 @@
         <v>24</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -2955,7 +3022,7 @@
         <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN14" t="n">
         <v>22</v>
@@ -2985,10 +3052,10 @@
         <v>8</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
         <v>2</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
@@ -3131,10 +3198,10 @@
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3155,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
         <v>23</v>
@@ -3170,7 +3237,7 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -3214,55 +3281,55 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F16" t="n">
         <v>28</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.8</v>
+        <v>37.6</v>
       </c>
       <c r="J16" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K16" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M16" t="n">
         <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>0.354</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="P16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R16" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S16" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T16" t="n">
-        <v>42.5</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
         <v>21.6</v>
@@ -3271,7 +3338,7 @@
         <v>13.7</v>
       </c>
       <c r="W16" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X16" t="n">
         <v>4.7</v>
@@ -3283,19 +3350,19 @@
         <v>19.4</v>
       </c>
       <c r="AA16" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD16" t="n">
         <v>19</v>
       </c>
-      <c r="AB16" t="n">
-        <v>95.7</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15</v>
-      </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF16" t="n">
         <v>9</v>
@@ -3307,7 +3374,7 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>24</v>
@@ -3322,10 +3389,10 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
         <v>28</v>
@@ -3334,13 +3401,13 @@
         <v>22</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>15</v>
@@ -3352,10 +3419,10 @@
         <v>14</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ16" t="n">
         <v>6</v>
@@ -3364,7 +3431,7 @@
         <v>29</v>
       </c>
       <c r="BB16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC16" t="n">
         <v>13</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" t="n">
         <v>21</v>
       </c>
       <c r="G17" t="n">
-        <v>0.696</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,46 +3481,46 @@
         <v>38.9</v>
       </c>
       <c r="J17" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.505</v>
+        <v>0.506</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="N17" t="n">
         <v>0.368</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P17" t="n">
         <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T17" t="n">
-        <v>36.7</v>
+        <v>36.5</v>
       </c>
       <c r="U17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
         <v>4.6</v>
@@ -3462,19 +3529,19 @@
         <v>3.1</v>
       </c>
       <c r="Z17" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>103.4</v>
+        <v>103.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>5</v>
@@ -3486,7 +3553,7 @@
         <v>5</v>
       </c>
       <c r="AH17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AI17" t="n">
         <v>8</v>
@@ -3501,10 +3568,10 @@
         <v>15</v>
       </c>
       <c r="AM17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO17" t="n">
         <v>15</v>
@@ -3525,10 +3592,10 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
         <v>2</v>
@@ -3546,10 +3613,10 @@
         <v>16</v>
       </c>
       <c r="BB17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="n">
         <v>13</v>
       </c>
       <c r="F18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" t="n">
-        <v>0.183</v>
+        <v>0.186</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J18" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.434</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N18" t="n">
         <v>0.353</v>
       </c>
       <c r="O18" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P18" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R18" t="n">
         <v>11.8</v>
@@ -3629,16 +3696,16 @@
         <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="V18" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W18" t="n">
         <v>6.7</v>
       </c>
       <c r="X18" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="n">
         <v>5.2</v>
@@ -3647,16 +3714,16 @@
         <v>21.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.3</v>
+        <v>95.2</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,16 +3753,16 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3704,7 +3771,7 @@
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -3760,28 +3827,28 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="n">
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J19" t="n">
         <v>87.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
         <v>7.5</v>
@@ -3790,13 +3857,13 @@
         <v>21.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="P19" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="Q19" t="n">
         <v>0.78</v>
@@ -3805,7 +3872,7 @@
         <v>12.7</v>
       </c>
       <c r="S19" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T19" t="n">
         <v>44.9</v>
@@ -3814,7 +3881,7 @@
         <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W19" t="n">
         <v>8.6</v>
@@ -3826,25 +3893,25 @@
         <v>5.7</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="AB19" t="n">
-        <v>106.3</v>
+        <v>106.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG19" t="n">
         <v>16</v>
@@ -3865,7 +3932,7 @@
         <v>17</v>
       </c>
       <c r="AM19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN19" t="n">
         <v>26</v>
@@ -3883,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="AS19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20" t="n">
         <v>40</v>
       </c>
       <c r="G20" t="n">
-        <v>0.429</v>
+        <v>0.42</v>
       </c>
       <c r="H20" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I20" t="n">
         <v>38.1</v>
       </c>
       <c r="J20" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K20" t="n">
         <v>0.46</v>
@@ -3972,31 +4039,31 @@
         <v>15.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.371</v>
       </c>
       <c r="O20" t="n">
         <v>18</v>
       </c>
       <c r="P20" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
         <v>8</v>
@@ -4014,13 +4081,13 @@
         <v>20.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE20" t="n">
         <v>20</v>
@@ -4032,13 +4099,13 @@
         <v>20</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4065,7 +4132,7 @@
         <v>11</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
         <v>22</v>
@@ -4095,7 +4162,7 @@
         <v>18</v>
       </c>
       <c r="BC20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -4202,10 +4269,10 @@
         <v>-1.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>21</v>
@@ -4214,7 +4281,7 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
@@ -4223,7 +4290,7 @@
         <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL21" t="n">
         <v>6</v>
@@ -4232,16 +4299,16 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP21" t="n">
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4274,7 +4341,7 @@
         <v>25</v>
       </c>
       <c r="BB21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="n">
         <v>18</v>
       </c>
       <c r="G22" t="n">
-        <v>0.743</v>
+        <v>0.739</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J22" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K22" t="n">
         <v>0.471</v>
@@ -4336,55 +4403,55 @@
         <v>22.1</v>
       </c>
       <c r="N22" t="n">
-        <v>0.363</v>
+        <v>0.361</v>
       </c>
       <c r="O22" t="n">
         <v>20</v>
       </c>
       <c r="P22" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.803</v>
+        <v>0.804</v>
       </c>
       <c r="R22" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S22" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T22" t="n">
-        <v>45.3</v>
+        <v>45.4</v>
       </c>
       <c r="U22" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V22" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W22" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X22" t="n">
         <v>6.1</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>106</v>
+        <v>105.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4399,10 +4466,10 @@
         <v>16</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4414,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4426,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="AR22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
@@ -4435,13 +4502,13 @@
         <v>2</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV22" t="n">
         <v>27</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4657,7 @@
         <v>22</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4614,10 +4681,10 @@
         <v>10</v>
       </c>
       <c r="AT23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AU23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4632,7 +4699,7 @@
         <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" t="n">
-        <v>0.211</v>
+        <v>0.214</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
@@ -4694,28 +4761,28 @@
         <v>0.429</v>
       </c>
       <c r="L24" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M24" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.305</v>
+        <v>0.304</v>
       </c>
       <c r="O24" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P24" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.71</v>
+        <v>0.713</v>
       </c>
       <c r="R24" t="n">
         <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T24" t="n">
         <v>43.5</v>
@@ -4727,7 +4794,7 @@
         <v>17.2</v>
       </c>
       <c r="W24" t="n">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X24" t="n">
         <v>4</v>
@@ -4736,19 +4803,19 @@
         <v>7.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB24" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.4</v>
+        <v>-11.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,10 +4827,10 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
         <v>1</v>
@@ -4772,16 +4839,16 @@
         <v>29</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>16</v>
@@ -4793,13 +4860,13 @@
         <v>8</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
       </c>
       <c r="AU24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4814,13 +4881,13 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F25" t="n">
         <v>29</v>
       </c>
       <c r="G25" t="n">
-        <v>0.592</v>
+        <v>0.586</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,28 +4937,28 @@
         <v>38.7</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K25" t="n">
         <v>0.463</v>
       </c>
       <c r="L25" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.372</v>
       </c>
       <c r="O25" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P25" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
         <v>11.4</v>
@@ -4900,19 +4967,19 @@
         <v>31.7</v>
       </c>
       <c r="T25" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U25" t="n">
         <v>19.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W25" t="n">
         <v>8.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
         <v>4.1</v>
@@ -4927,19 +4994,19 @@
         <v>105.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF25" t="n">
         <v>10</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH25" t="n">
         <v>24</v>
@@ -4948,31 +5015,31 @@
         <v>9</v>
       </c>
       <c r="AJ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK25" t="n">
         <v>7</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM25" t="n">
         <v>4</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS25" t="n">
         <v>16</v>
@@ -4984,7 +5051,7 @@
         <v>29</v>
       </c>
       <c r="AV25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW25" t="n">
         <v>9</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" t="n">
         <v>45</v>
       </c>
       <c r="F26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G26" t="n">
-        <v>0.634</v>
+        <v>0.643</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="J26" t="n">
-        <v>87.3</v>
+        <v>87.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
         <v>9.5</v>
       </c>
       <c r="M26" t="n">
-        <v>25.6</v>
+        <v>25.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O26" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P26" t="n">
         <v>23.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.82</v>
+        <v>0.819</v>
       </c>
       <c r="R26" t="n">
         <v>12.6</v>
@@ -5082,7 +5149,7 @@
         <v>33.6</v>
       </c>
       <c r="T26" t="n">
-        <v>46.2</v>
+        <v>46.3</v>
       </c>
       <c r="U26" t="n">
         <v>23.2</v>
@@ -5094,25 +5161,25 @@
         <v>5.5</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.3</v>
+        <v>107.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5124,7 +5191,7 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>3</v>
@@ -5133,7 +5200,7 @@
         <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL26" t="n">
         <v>2</v>
@@ -5142,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
         <v>6</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>-2.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF27" t="n">
         <v>24</v>
@@ -5315,7 +5382,7 @@
         <v>19</v>
       </c>
       <c r="AK27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL27" t="n">
         <v>25</v>
@@ -5369,7 +5436,7 @@
         <v>14</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -5398,37 +5465,37 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="n">
         <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.771</v>
+        <v>0.768</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="J28" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.488</v>
+        <v>0.487</v>
       </c>
       <c r="L28" t="n">
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="N28" t="n">
-        <v>0.398</v>
+        <v>0.397</v>
       </c>
       <c r="O28" t="n">
         <v>16</v>
@@ -5440,13 +5507,13 @@
         <v>0.787</v>
       </c>
       <c r="R28" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S28" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="T28" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U28" t="n">
         <v>25.2</v>
@@ -5464,19 +5531,19 @@
         <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5536,7 +5603,7 @@
         <v>19</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY28" t="n">
         <v>16</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5682,7 +5749,7 @@
         <v>21</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5703,16 +5770,16 @@
         <v>12</v>
       </c>
       <c r="AS29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW29" t="n">
         <v>22</v>
@@ -5730,7 +5797,7 @@
         <v>5</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC29" t="n">
         <v>9</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="n">
         <v>23</v>
       </c>
       <c r="F30" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" t="n">
-        <v>0.324</v>
+        <v>0.329</v>
       </c>
       <c r="H30" t="n">
         <v>48.1</v>
@@ -5789,34 +5856,34 @@
         <v>6.8</v>
       </c>
       <c r="M30" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N30" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O30" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P30" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.746</v>
+        <v>0.747</v>
       </c>
       <c r="R30" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S30" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U30" t="n">
         <v>19.9</v>
       </c>
       <c r="V30" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="W30" t="n">
         <v>6.8</v>
@@ -5825,10 +5892,10 @@
         <v>4.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AA30" t="n">
         <v>20.3</v>
@@ -5837,22 +5904,22 @@
         <v>94.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>-6.8</v>
+        <v>-6.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
         <v>25</v>
       </c>
       <c r="AF30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH30" t="n">
         <v>27</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>27</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>28</v>
       </c>
       <c r="AI30" t="n">
         <v>28</v>
@@ -5864,13 +5931,13 @@
         <v>23</v>
       </c>
       <c r="AL30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
         <v>23</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO30" t="n">
         <v>25</v>
@@ -5885,7 +5952,7 @@
         <v>20</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6043,7 +6110,7 @@
         <v>6</v>
       </c>
       <c r="AK31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL31" t="n">
         <v>14</v>
@@ -6064,7 +6131,7 @@
         <v>25</v>
       </c>
       <c r="AR31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS31" t="n">
         <v>19</v>
@@ -6076,13 +6143,13 @@
         <v>7</v>
       </c>
       <c r="AV31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-24-2013-14</t>
+          <t>2014-03-24</t>
         </is>
       </c>
     </row>
